--- a/participants/participant_49/participant_49_task_orders.xlsx
+++ b/participants/participant_49/participant_49_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731549700198" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731581062112" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731581071773" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1649873158154177" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731582172112" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912950093892" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291297313209" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912973142076" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912973773" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912974481826" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731549350178.csv</t>
+          <t>go_stims-16502912949601977.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731549530506.csv</t>
+          <t>GNG_stims-16502912949767191.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731549540179.csv</t>
+          <t>go_stims-16502912949787767.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731549690514.csv</t>
+          <t>GNG_stims-16502912950083568.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498731567690184.csv</t>
+          <t>OB-16502912961915188.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498731556860182.csv</t>
+          <t>OB-16502912963880095.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498731566100178.csv</t>
+          <t>ZB-match_7-16502912951859667.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498731553980398.csv</t>
+          <t>TB-16502912968046935.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498731555080178.csv</t>
+          <t>ZB-match_1-16502912955048096.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-164987315557802.csv</t>
+          <t>OB-1650291296337462.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498731573890183.csv</t>
+          <t>TB-16502912972597625.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498731580892088.csv</t>
+          <t>TB-16502912972948935.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498731552300198.csv</t>
+          <t>ZB-match_5-16502912956519852.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873158122212.csv</t>
+          <t>MM_stims-16502912973287969.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731581081805.csv</t>
+          <t>ZM_stims-16502912973162494.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731581371777.csv</t>
+          <t>MM_stims-1650291297359939.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731581231794.csv</t>
+          <t>ZM_stims-16502912973298056.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731581531916.csv</t>
+          <t>MM_stims-16502912973763.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873158138179.csv</t>
+          <t>ZM_stims-1650291297359939.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731581852114.csv</t>
+          <t>SAT_stims-1650291297381412.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873158157175.csv</t>
+          <t>vSAT_stims-1650291297417404.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731581691751.csv</t>
+          <t>SAT_stims-16502912973917892.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731582021806.csv</t>
+          <t>vSAT_stims-16502912974327638.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_49/participant_49_task_orders.xlsx
+++ b/participants/participant_49/participant_49_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912950093892" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291297313209" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912973142076" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912973773" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912974481826" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-165047789871423" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477900315923" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504779003169143" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477900364918" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504779004279475" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912949601977.csv</t>
+          <t>go_stims-16504778986792343.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912949767191.csv</t>
+          <t>GNG_stims-16504778986972299.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912949787767.csv</t>
+          <t>go_stims-1650477898699232.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912950083568.csv</t>
+          <t>GNG_stims-1650477898713265.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912961915188.csv</t>
+          <t>TB-16504779002922618.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912963880095.csv</t>
+          <t>OB-16504778988772328.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502912951859667.csv</t>
+          <t>OB-16504778999622335.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912968046935.csv</t>
+          <t>TB-16504779001872308.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502912955048096.csv</t>
+          <t>TB-16504779000912633.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650291296337462.csv</t>
+          <t>ZB-match_5-1650477898743265.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912972597625.csv</t>
+          <t>ZB-match_1-16504778988442616.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912972948935.csv</t>
+          <t>OB-16504778990132678.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502912956519852.csv</t>
+          <t>ZB-match_1-16504778987792604.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912973287969.csv</t>
+          <t>MM_stims-1650477900332042.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912973162494.csv</t>
+          <t>ZM_stims-16504779003199496.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291297359939.csv</t>
+          <t>MM_stims-1650477900347952.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912973298056.csv</t>
+          <t>ZM_stims-16504779003329177.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912973763.csv</t>
+          <t>MM_stims-1650477900363914.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291297359939.csv</t>
+          <t>ZM_stims-1650477900347952.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291297381412.csv</t>
+          <t>SAT_stims-16504779003669193.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291297417404.csv</t>
+          <t>vSAT_stims-16504779003959498.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912973917892.csv</t>
+          <t>SAT_stims-16504779003809636.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912974327638.csv</t>
+          <t>vSAT_stims-16504779004119487.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_49/participant_49_task_orders.xlsx
+++ b/participants/participant_49/participant_49_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-165047789871423" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477900315923" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504779003169143" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477900364918" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504779004279475" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509962017544417" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509962039257438" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509962039257438" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650996203973741" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509962040377407" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778986792343.csv</t>
+          <t>go_stims-16509962017224195.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778986972299.csv</t>
+          <t>GNG_stims-16509962017384055.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477898699232.csv</t>
+          <t>go_stims-16509962017384055.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477898713265.csv</t>
+          <t>GNG_stims-16509962017544417.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504779002922618.csv</t>
+          <t>OB-16509962030697036.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778988772328.csv</t>
+          <t>ZB-match_6-16509962026455684.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778999622335.csv</t>
+          <t>TB-16509962038057024.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16504779001872308.csv</t>
+          <t>OB-16509962027096055.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504779000912633.csv</t>
+          <t>TB-16509962035576982.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650477898743265.csv</t>
+          <t>TB-16509962039097009.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778988442616.csv</t>
+          <t>OB-16509962034297295.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778990132678.csv</t>
+          <t>ZB-match_4-16509962019736094.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778987792604.csv</t>
+          <t>ZB-match_6-16509962025175674.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477900332042.csv</t>
+          <t>MM_stims-1650996203941738.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504779003199496.csv</t>
+          <t>ZM_stims-16509962039257438.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477900347952.csv</t>
+          <t>MM_stims-16509962039577115.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504779003329177.csv</t>
+          <t>ZM_stims-1650996203941738.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477900363914.csv</t>
+          <t>MM_stims-1650996203973741.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477900347952.csv</t>
+          <t>ZM_stims-16509962039577115.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504779003669193.csv</t>
+          <t>SAT_stims-1650996203973741.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504779003959498.csv</t>
+          <t>SAT_stims-16509962039897368.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504779003809636.csv</t>
+          <t>vSAT_stims-16509962040057366.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504779004119487.csv</t>
+          <t>vSAT_stims-16509962040217361.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_49/participant_49_task_orders.xlsx
+++ b/participants/participant_49/participant_49_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509962017544417" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509962039257438" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509962039257438" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650996203973741" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509962040377407" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168805037288" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168807707495" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168807707495" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511688077543192" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168807816818" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509962017224195.csv</t>
+          <t>go_stims-16511688049993541.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509962017384055.csv</t>
+          <t>GNG_stims-1651168805013761.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509962017384055.csv</t>
+          <t>go_stims-165116880501476.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509962017544417.csv</t>
+          <t>GNG_stims-16511688050363185.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509962030697036.csv</t>
+          <t>OB-16511688073122318.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509962026455684.csv</t>
+          <t>ZB-match_0-16511688058499186.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509962038057024.csv</t>
+          <t>TB-16511688075020964.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509962027096055.csv</t>
+          <t>OB-16511688064153287.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509962035576982.csv</t>
+          <t>TB-16511688073434527.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509962039097009.csv</t>
+          <t>OB-16511688062586653.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509962034297295.csv</t>
+          <t>ZB-match_8-16511688052357707.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509962019736094.csv</t>
+          <t>ZB-match_7-16511688056696382.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509962025175674.csv</t>
+          <t>TB-16511688076918159.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996203941738.csv</t>
+          <t>MM_stims-16511688077230346.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509962039257438.csv</t>
+          <t>ZM_stims-1651168807707495.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509962039577115.csv</t>
+          <t>MM_stims-16511688077386935.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996203941738.csv</t>
+          <t>ZM_stims-16511688077230346.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650996203973741.csv</t>
+          <t>MM_stims-16511688077543192.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509962039577115.csv</t>
+          <t>ZM_stims-16511688077386935.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996203973741.csv</t>
+          <t>vSAT_stims-16511688078011901.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509962039897368.csv</t>
+          <t>SAT_stims-16511688077543192.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509962040057366.csv</t>
+          <t>vSAT_stims-165116880778557.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509962040217361.csv</t>
+          <t>SAT_stims-16511688077699137.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_49/participant_49_task_orders.xlsx
+++ b/participants/participant_49/participant_49_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168805037288" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168807707495" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168807707495" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511688077543192" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168807816818" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556345458887" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255636395462" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556364019458" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556364688616" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556365449228" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511688049993541.csv</t>
+          <t>go_stims-16512556345118978.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168805013761.csv</t>
+          <t>GNG_stims-1651255634527889.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-165116880501476.csv</t>
+          <t>go_stims-16512556345298893.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511688050363185.csv</t>
+          <t>GNG_stims-1651255634543893.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511688073122318.csv</t>
+          <t>ZB-match_1-16512556346098952.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511688058499186.csv</t>
+          <t>OB-16512556349326031.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511688075020964.csv</t>
+          <t>ZB-match_0-16512556345578892.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511688064153287.csv</t>
+          <t>OB-16512556346988888.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511688073434527.csv</t>
+          <t>TB-16512556359919708.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511688062586653.csv</t>
+          <t>TB-16512556363744626.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511688052357707.csv</t>
+          <t>OB-1651255635500415.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511688056696382.csv</t>
+          <t>TB-16512556357199667.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511688076918159.csv</t>
+          <t>ZB-match_1-16512556346448972.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511688077230346.csv</t>
+          <t>MM_stims-16512556364268465.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168807707495.csv</t>
+          <t>ZM_stims-16512556364052324.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511688077386935.csv</t>
+          <t>MM_stims-16512556364429445.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511688077230346.csv</t>
+          <t>ZM_stims-16512556364278476.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511688077543192.csv</t>
+          <t>MM_stims-16512556364678578.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511688077386935.csv</t>
+          <t>ZM_stims-16512556364439454.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511688078011901.csv</t>
+          <t>vSAT_stims-16512556365146065.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511688077543192.csv</t>
+          <t>vSAT_stims-16512556365298655.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-165116880778557.csv</t>
+          <t>SAT_stims-16512556364752088.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511688077699137.csv</t>
+          <t>SAT_stims-16512556364993453.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_49/participant_49_task_orders.xlsx
+++ b/participants/participant_49/participant_49_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556345458887" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255636395462" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556364019458" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556364688616" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556365449228" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515890482248614" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16515890493298016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TOL_TO-16515890493789148" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515890493789148" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515890494101632" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556345118978.csv</t>
+          <t>vSAT_stims-16515890482092366.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255634527889.csv</t>
+          <t>SAT_stims-1651589048162331.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512556345298893.csv</t>
+          <t>SAT_stims-16515890481779914.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255634543893.csv</t>
+          <t>vSAT_stims-16515890481936162.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512556346098952.csv</t>
+          <t>OB-16515890489335659.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512556349326031.csv</t>
+          <t>TB-16515890493141346.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512556345578892.csv</t>
+          <t>ZB-match_7-16515890484605336.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512556346988888.csv</t>
+          <t>TB-16515890492169983.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16512556359919708.csv</t>
+          <t>ZB-match_3-16515890486501694.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512556363744626.csv</t>
+          <t>ZB-match_5-1651589048346677.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651255635500415.csv</t>
+          <t>OB-16515890490273166.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16512556357199667.csv</t>
+          <t>OB-16515890486970026.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512556346448972.csv</t>
+          <t>TB-16515890491232517.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +606,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890493453526.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890493298016.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890493632903.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890493464952.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890493789148.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890493632903.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +718,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,93 +728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556364268465.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556364052324.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556364429445.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556364278476.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556364678578.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556364439454.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556365146065.csv</t>
+          <t>go_stims-16515890493789148.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556365298655.csv</t>
+          <t>GNG_stims-16515890493945398.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556364752088.csv</t>
+          <t>go_stims-16515890493945398.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556364993453.csv</t>
+          <t>GNG_stims-16515890494101632.csv</t>
         </is>
       </c>
     </row>
